--- a/medicine/Hématologie/Fixation-élution/Fixation-élution.xlsx
+++ b/medicine/Hématologie/Fixation-élution/Fixation-élution.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fixation-%C3%A9lution</t>
+          <t>Fixation-élution</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fixation-élution est une technique de laboratoire utilisée en immuno-hématologie, permettant de mettre des antigènes faibles en évidence à la surface des hématies.
 En effet certains groupes sanguins ne peuvent être mis en évidence par les réactions d'agglutination normalement utilisées. Quoique non, ou peu agglutinables par le sérum test utilisé, les globules possèdent cependant l'antigène à leur surface. Sont dans ce cas de nombreux groupes sanguins dits faibles tels que A3, Ax, Am, Ael... Bx, Bm...Du, C*...
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fixation-%C3%A9lution</t>
+          <t>Fixation-élution</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Procédé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La technique de fixation-élution consiste à faire agir le sérum test sur les globules rouges. L'anticorps contenu dans le sérum se fixe sur les globules si ces derniers possèdent l'antigène correspondant à leur surface, mais ne provoque pas l'agglutination habituellement observée. Cette fixation de l'anticorps sur son antigène, qui ne provoque pas de réaction visible, constitue le premier temps de la technique.
 La liaison antigène-anticorps est une liaison réversible, avec une constante d'association dépendant de divers paramètres, en particulier de la température.
